--- a/epidemic_models/data/covid_19_data.xlsx
+++ b/epidemic_models/data/covid_19_data.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,27 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lbusoni/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{67918621-F100-AA49-AD7E-25D6860F5C07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62193E2B-1980-7B43-8F70-E983534589E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35420" yWindow="-7660" windowWidth="28040" windowHeight="19860"/>
+    <workbookView xWindow="-35420" yWindow="-7660" windowWidth="28040" windowHeight="19860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hubei" sheetId="2" r:id="rId1"/>
+    <sheet name="Italy" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
   <si>
     <t>01/22/2020</t>
-  </si>
-  <si>
-    <t>Hubei</t>
-  </si>
-  <si>
-    <t>Mainland China</t>
   </si>
   <si>
     <t>01/23/2020</t>
@@ -112,8 +107,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -252,6 +247,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Roboto Mono"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -595,10 +596,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Colore 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -953,744 +957,878 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2">
+        <v>43832</v>
+      </c>
+      <c r="C11" s="1">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2">
+        <v>43863</v>
+      </c>
+      <c r="C12" s="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2">
+        <v>43892</v>
+      </c>
+      <c r="C13" s="1">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2">
+        <v>43923</v>
+      </c>
+      <c r="C14" s="1">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2">
+        <v>43953</v>
+      </c>
+      <c r="C15" s="1">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2">
+        <v>43984</v>
+      </c>
+      <c r="C16" s="1">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>17</v>
+      </c>
+      <c r="B17" s="2">
+        <v>44014</v>
+      </c>
+      <c r="C17" s="1">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2">
+        <v>44045</v>
+      </c>
+      <c r="C18" s="1">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>19</v>
+      </c>
+      <c r="B19" s="2">
+        <v>44076</v>
+      </c>
+      <c r="C19" s="1">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>20</v>
+      </c>
+      <c r="B20" s="2">
+        <v>44106</v>
+      </c>
+      <c r="C20" s="1">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>21</v>
+      </c>
+      <c r="B21" s="2">
+        <v>44137</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>22</v>
+      </c>
+      <c r="B22" s="2">
+        <v>44167</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>23</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>24</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>25</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>26</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>27</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>28</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>29</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="1">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>30</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="1">
+        <v>2144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>31</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="1">
+        <v>2144</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>32</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="1">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>33</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="1">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>34</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="1">
+        <v>2495</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>35</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="1">
+        <v>2563</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>36</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="1">
+        <v>2615</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>37</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="1">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>38</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="1">
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>39</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="1">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>40</v>
+      </c>
+      <c r="B40" s="2">
+        <v>43833</v>
+      </c>
+      <c r="C40" s="1">
+        <v>2761</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>41</v>
+      </c>
+      <c r="B41" s="2">
+        <v>43864</v>
+      </c>
+      <c r="C41" s="1">
+        <v>2803</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>42</v>
+      </c>
+      <c r="B42" s="2">
+        <v>43893</v>
+      </c>
+      <c r="C42" s="1">
+        <v>2835</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>43</v>
+      </c>
+      <c r="B43" s="2">
+        <v>43924</v>
+      </c>
+      <c r="C43" s="1">
+        <v>2871</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A31744-4F76-654D-8804-E575C117BEB8}">
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1">
+    <row r="1" spans="1:3">
+      <c r="A1" s="4">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="4">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5">
+        <v>43832</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="4">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5">
+        <v>43863</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5">
+        <v>43892</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="4">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5">
+        <v>43923</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="4">
+        <v>6</v>
+      </c>
+      <c r="B6" s="5">
+        <v>43953</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="4">
+        <v>7</v>
+      </c>
+      <c r="B7" s="5">
+        <v>43984</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="4">
+        <v>8</v>
+      </c>
+      <c r="B8" s="5">
+        <v>44014</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="4">
+        <v>9</v>
+      </c>
+      <c r="B9" s="5">
+        <v>44045</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="4">
+        <v>10</v>
+      </c>
+      <c r="B10" s="5">
+        <v>44076</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="4">
+        <v>11</v>
+      </c>
+      <c r="B11" s="5">
+        <v>44106</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="4">
+        <v>12</v>
+      </c>
+      <c r="B12" s="5">
+        <v>44137</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="4">
+        <v>13</v>
+      </c>
+      <c r="B13" s="5">
+        <v>44167</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="4">
+        <v>14</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="4">
+        <v>15</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="4">
+        <v>16</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="4">
+        <v>17</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="4">
+        <v>18</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="4">
+        <v>19</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="4">
+        <v>20</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="4">
+        <v>21</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="4">
+        <v>22</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="4">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="4">
+        <v>23</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="4">
         <v>2</v>
       </c>
-      <c r="E1" s="1">
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="4">
+        <v>24</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="4">
+        <v>25</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="4">
+        <v>26</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="4">
+        <v>27</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="4">
+        <v>28</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="4">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="1">
+    <row r="29" spans="1:3">
+      <c r="A29" s="4">
+        <v>29</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="4">
+        <v>30</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="4">
+        <v>31</v>
+      </c>
+      <c r="B31" s="5">
+        <v>43833</v>
+      </c>
+      <c r="C31" s="4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="4">
+        <v>32</v>
+      </c>
+      <c r="B32" s="5">
+        <v>43864</v>
+      </c>
+      <c r="C32" s="4">
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="1">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="1">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="1">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="1">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="1">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1">
-        <v>11</v>
-      </c>
-      <c r="B11" s="2">
-        <v>43832</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="1">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1">
-        <v>12</v>
-      </c>
-      <c r="B12" s="2">
-        <v>43863</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="1">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1">
-        <v>13</v>
-      </c>
-      <c r="B13" s="2">
-        <v>43892</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="1">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1">
-        <v>14</v>
-      </c>
-      <c r="B14" s="2">
-        <v>43923</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="1">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1">
-        <v>15</v>
-      </c>
-      <c r="B15" s="2">
-        <v>43953</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="1">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1">
-        <v>16</v>
-      </c>
-      <c r="B16" s="2">
-        <v>43984</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E16" s="1">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1">
-        <v>17</v>
-      </c>
-      <c r="B17" s="2">
-        <v>44014</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E17" s="1">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="1">
-        <v>18</v>
-      </c>
-      <c r="B18" s="2">
-        <v>44045</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E18" s="1">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1">
-        <v>19</v>
-      </c>
-      <c r="B19" s="2">
-        <v>44076</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="1">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="1">
-        <v>20</v>
-      </c>
-      <c r="B20" s="2">
-        <v>44106</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="1">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="1">
-        <v>21</v>
-      </c>
-      <c r="B21" s="2">
-        <v>44137</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="1">
-        <v>22</v>
-      </c>
-      <c r="B22" s="2">
-        <v>44167</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E22" s="1">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="1">
-        <v>23</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" s="1">
-        <v>1310</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="1">
-        <v>24</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E24" s="1">
-        <v>1457</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="1">
-        <v>25</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E25" s="1">
-        <v>1596</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="1">
-        <v>26</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E26" s="1">
-        <v>1696</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="1">
-        <v>27</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E27" s="1">
-        <v>1789</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="1">
-        <v>28</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E28" s="1">
-        <v>1921</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="1">
-        <v>29</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E29" s="1">
-        <v>2029</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="1">
-        <v>30</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30" s="1">
-        <v>2144</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="1">
-        <v>31</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31" s="1">
-        <v>2144</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="1">
-        <v>32</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E32" s="1">
-        <v>2346</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="1">
+    <row r="33" spans="1:3">
+      <c r="A33" s="4">
         <v>33</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E33" s="1">
-        <v>2346</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="1">
+      <c r="B33" s="5">
+        <v>43893</v>
+      </c>
+      <c r="C33" s="4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="4">
         <v>34</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E34" s="1">
-        <v>2495</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="1">
-        <v>35</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E35" s="1">
-        <v>2563</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="1">
-        <v>36</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E36" s="1">
-        <v>2615</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="1">
-        <v>37</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E37" s="1">
-        <v>2641</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="1">
-        <v>38</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E38" s="1">
-        <v>2682</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="1">
-        <v>39</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E39" s="1">
-        <v>2727</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="1">
-        <v>40</v>
-      </c>
-      <c r="B40" s="2">
-        <v>43833</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E40" s="1">
-        <v>2761</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="1">
-        <v>41</v>
-      </c>
-      <c r="B41" s="2">
-        <v>43864</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E41" s="1">
-        <v>2803</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="1">
-        <v>42</v>
-      </c>
-      <c r="B42" s="2">
-        <v>43893</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E42" s="1">
-        <v>2835</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="1">
-        <v>43</v>
-      </c>
-      <c r="B43" s="2">
+      <c r="B34" s="5">
         <v>43924</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E43" s="1">
-        <v>2871</v>
+      <c r="C34" s="4">
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/epidemic_models/data/covid_19_data.xlsx
+++ b/epidemic_models/data/covid_19_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lbusoni/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lbusoni/git/epidemic_models/epidemic_models/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62193E2B-1980-7B43-8F70-E983534589E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A3EE6CB-D9D2-674E-83AF-FC3CDBDC8BCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35420" yWindow="-7660" windowWidth="28040" windowHeight="19860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-37940" yWindow="-8020" windowWidth="28040" windowHeight="19860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hubei" sheetId="2" r:id="rId1"/>
@@ -108,7 +108,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -242,11 +242,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Roboto Mono"/>
     </font>
     <font>
       <sz val="12"/>
@@ -596,13 +591,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Colore 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -958,488 +951,746 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.83203125" style="3"/>
+    <col min="2" max="2" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="2">
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="2">
+        <v>444</v>
+      </c>
+      <c r="D1" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1">
+      <c r="E1" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
+        <v>444</v>
+      </c>
+      <c r="D2" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
+      <c r="E2" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
+        <v>549</v>
+      </c>
+      <c r="D3" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
+      <c r="E3" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
+        <v>761</v>
+      </c>
+      <c r="D4" s="2">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1">
+      <c r="E4" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
+        <v>1058</v>
+      </c>
+      <c r="D5" s="2">
         <v>52</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1">
+      <c r="E5" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
+        <v>1423</v>
+      </c>
+      <c r="D6" s="2">
         <v>76</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1">
+      <c r="E6" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2">
+        <v>3554</v>
+      </c>
+      <c r="D7" s="2">
         <v>125</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1">
+      <c r="E7" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
         <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
+        <v>3554</v>
+      </c>
+      <c r="D8" s="2">
         <v>125</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1">
+      <c r="E8" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
         <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2">
+        <v>4903</v>
+      </c>
+      <c r="D9" s="2">
         <v>162</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1">
+      <c r="E9" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="2">
+        <v>5806</v>
+      </c>
+      <c r="D10" s="2">
         <v>204</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1">
+      <c r="E10" s="2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
         <v>11</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="3">
         <v>43832</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="2">
+        <v>7153</v>
+      </c>
+      <c r="D11" s="2">
         <v>249</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1">
+      <c r="E11" s="2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
         <v>12</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="3">
         <v>43863</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="2">
+        <v>11177</v>
+      </c>
+      <c r="D12" s="2">
         <v>350</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1">
+      <c r="E12" s="2">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
         <v>13</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="3">
         <v>43892</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="2">
+        <v>13522</v>
+      </c>
+      <c r="D13" s="2">
         <v>414</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1">
+      <c r="E13" s="2">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
         <v>14</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="3">
         <v>43923</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="2">
+        <v>16678</v>
+      </c>
+      <c r="D14" s="2">
         <v>479</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1">
+      <c r="E14" s="2">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
         <v>15</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="3">
         <v>43953</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="2">
+        <v>19665</v>
+      </c>
+      <c r="D15" s="2">
         <v>549</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1">
+      <c r="E15" s="2">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
         <v>16</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="3">
         <v>43984</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="2">
+        <v>22112</v>
+      </c>
+      <c r="D16" s="2">
         <v>618</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1">
+      <c r="E16" s="2">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
         <v>17</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="3">
         <v>44014</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="2">
+        <v>24953</v>
+      </c>
+      <c r="D17" s="2">
         <v>699</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1">
+      <c r="E17" s="2">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
         <v>18</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="3">
         <v>44045</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="2">
+        <v>27100</v>
+      </c>
+      <c r="D18" s="2">
         <v>780</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1">
+      <c r="E18" s="2">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
         <v>19</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="3">
         <v>44076</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="2">
+        <v>29631</v>
+      </c>
+      <c r="D19" s="2">
         <v>871</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1">
+      <c r="E19" s="2">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
         <v>20</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="3">
         <v>44106</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="2">
+        <v>31728</v>
+      </c>
+      <c r="D20" s="2">
         <v>974</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1">
+      <c r="E20" s="2">
+        <v>2222</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
         <v>21</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="3">
         <v>44137</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="2">
+        <v>33366</v>
+      </c>
+      <c r="D21" s="2">
         <v>1068</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1">
+      <c r="E21" s="2">
+        <v>2639</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
         <v>22</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="3">
         <v>44167</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="2">
+        <v>33366</v>
+      </c>
+      <c r="D22" s="2">
         <v>1068</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1">
+      <c r="E22" s="2">
+        <v>2686</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
         <v>23</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="2">
+        <v>48206</v>
+      </c>
+      <c r="D23" s="2">
         <v>1310</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1">
+      <c r="E23" s="2">
+        <v>3459</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
         <v>24</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="2">
+        <v>54406</v>
+      </c>
+      <c r="D24" s="2">
         <v>1457</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1">
+      <c r="E24" s="2">
+        <v>4774</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
         <v>25</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="2">
+        <v>56249</v>
+      </c>
+      <c r="D25" s="2">
         <v>1596</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="1">
+      <c r="E25" s="2">
+        <v>5623</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
         <v>26</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="2">
+        <v>58182</v>
+      </c>
+      <c r="D26" s="2">
         <v>1696</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="1">
+      <c r="E26" s="2">
+        <v>6639</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
         <v>27</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="2">
+        <v>59989</v>
+      </c>
+      <c r="D27" s="2">
         <v>1789</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="1">
+      <c r="E27" s="2">
+        <v>7862</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
         <v>28</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="2">
+        <v>61682</v>
+      </c>
+      <c r="D28" s="2">
         <v>1921</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="1">
+      <c r="E28" s="2">
+        <v>9128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
         <v>29</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="2">
+        <v>62031</v>
+      </c>
+      <c r="D29" s="2">
         <v>2029</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="1">
+      <c r="E29" s="2">
+        <v>10337</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
         <v>30</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="2">
+        <v>62442</v>
+      </c>
+      <c r="D30" s="2">
         <v>2144</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="1">
+      <c r="E30" s="2">
+        <v>11788</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
         <v>31</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="2">
+        <v>62662</v>
+      </c>
+      <c r="D31" s="2">
         <v>2144</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="1">
+      <c r="E31" s="2">
+        <v>11881</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
         <v>32</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="2">
+        <v>64084</v>
+      </c>
+      <c r="D32" s="2">
         <v>2346</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="1">
+      <c r="E32" s="2">
+        <v>15299</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
         <v>33</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="2">
+        <v>64084</v>
+      </c>
+      <c r="D33" s="2">
         <v>2346</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="1">
+      <c r="E33" s="2">
+        <v>15343</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
         <v>34</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="2">
+        <v>64287</v>
+      </c>
+      <c r="D34" s="2">
         <v>2495</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="1">
+      <c r="E34" s="2">
+        <v>16748</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
         <v>35</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="2">
+        <v>64786</v>
+      </c>
+      <c r="D35" s="2">
         <v>2563</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="1">
+      <c r="E35" s="2">
+        <v>18971</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
         <v>36</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="2">
+        <v>65187</v>
+      </c>
+      <c r="D36" s="2">
         <v>2615</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="1">
+      <c r="E36" s="2">
+        <v>20969</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
         <v>37</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="2">
+        <v>65596</v>
+      </c>
+      <c r="D37" s="2">
         <v>2641</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="1">
+      <c r="E37" s="2">
+        <v>23383</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
         <v>38</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="2">
+        <v>65914</v>
+      </c>
+      <c r="D38" s="2">
         <v>2682</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="1">
+      <c r="E38" s="2">
+        <v>26403</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
         <v>39</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="2">
+        <v>66337</v>
+      </c>
+      <c r="D39" s="2">
         <v>2727</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="1">
+      <c r="E39" s="2">
+        <v>28993</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
         <v>40</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="3">
         <v>43833</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="2">
+        <v>66907</v>
+      </c>
+      <c r="D40" s="2">
         <v>2761</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="1">
+      <c r="E40" s="2">
+        <v>31536</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
         <v>41</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="3">
         <v>43864</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="2">
+        <v>67103</v>
+      </c>
+      <c r="D41" s="2">
         <v>2803</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="1">
+      <c r="E41" s="2">
+        <v>33934</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
         <v>42</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="3">
         <v>43893</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="2">
+        <v>67217</v>
+      </c>
+      <c r="D42" s="2">
         <v>2835</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="1">
+      <c r="E42" s="2">
+        <v>36208</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
         <v>43</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="3">
         <v>43924</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="2">
+        <v>67332</v>
+      </c>
+      <c r="D43" s="2">
         <v>2871</v>
+      </c>
+      <c r="E43" s="2">
+        <v>38557</v>
       </c>
     </row>
   </sheetData>
@@ -1449,386 +1700,624 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A31744-4F76-654D-8804-E575C117BEB8}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="2">
         <v>1</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="4">
+      <c r="C1" s="2">
         <v>2</v>
       </c>
-      <c r="B2" s="5">
+      <c r="D1" s="2">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3">
         <v>43832</v>
       </c>
-      <c r="C2" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="4">
+      <c r="C2" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
         <v>3</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="3">
         <v>43863</v>
       </c>
-      <c r="C3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="4">
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
         <v>4</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="3">
         <v>43892</v>
       </c>
-      <c r="C4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="4">
+      <c r="C4" s="2">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
         <v>5</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="3">
         <v>43923</v>
       </c>
-      <c r="C5" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="4">
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
         <v>6</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="3">
         <v>43953</v>
       </c>
-      <c r="C6" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="4">
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
         <v>7</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="3">
         <v>43984</v>
       </c>
-      <c r="C7" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="4">
+      <c r="C7" s="2">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
         <v>8</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="3">
         <v>44014</v>
       </c>
-      <c r="C8" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="4">
+      <c r="C8" s="2">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
         <v>9</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="3">
         <v>44045</v>
       </c>
-      <c r="C9" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="4">
+      <c r="C9" s="2">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
         <v>10</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="3">
         <v>44076</v>
       </c>
-      <c r="C10" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="4">
+      <c r="C10" s="2">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
         <v>11</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="3">
         <v>44106</v>
       </c>
-      <c r="C11" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="4">
+      <c r="C11" s="2">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
         <v>12</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="3">
         <v>44137</v>
       </c>
-      <c r="C12" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="4">
+      <c r="C12" s="2">
+        <v>3</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
         <v>13</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="3">
         <v>44167</v>
       </c>
-      <c r="C13" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="4">
+      <c r="C13" s="2">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
         <v>14</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="4">
+      <c r="C14" s="2">
+        <v>3</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
         <v>15</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="4">
+      <c r="C15" s="2">
+        <v>3</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
         <v>16</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="4">
+      <c r="C16" s="2">
+        <v>3</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
         <v>17</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="4">
+      <c r="C17" s="2">
+        <v>3</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
         <v>18</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="4">
+      <c r="C18" s="2">
+        <v>3</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
         <v>19</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="4">
+      <c r="C19" s="2">
+        <v>3</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
         <v>20</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="4">
+      <c r="C20" s="2">
+        <v>3</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
         <v>21</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="4">
+      <c r="C21" s="2">
+        <v>3</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
         <v>22</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="2">
+        <v>20</v>
+      </c>
+      <c r="D22" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="4">
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
         <v>23</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="2">
+        <v>62</v>
+      </c>
+      <c r="D23" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="4">
+      <c r="E23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
         <v>24</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="2">
+        <v>155</v>
+      </c>
+      <c r="D24" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="4">
+      <c r="E24" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
         <v>25</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="2">
+        <v>229</v>
+      </c>
+      <c r="D25" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="4">
+      <c r="E25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
         <v>26</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="2">
+        <v>322</v>
+      </c>
+      <c r="D26" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="4">
+      <c r="E26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
         <v>27</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="2">
+        <v>453</v>
+      </c>
+      <c r="D27" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="4">
+      <c r="E27" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
         <v>28</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="2">
+        <v>655</v>
+      </c>
+      <c r="D28" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="4">
+      <c r="E28" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
         <v>29</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="2">
+        <v>888</v>
+      </c>
+      <c r="D29" s="2">
         <v>21</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="4">
+      <c r="E29" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
         <v>30</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="2">
+        <v>1128</v>
+      </c>
+      <c r="D30" s="2">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="4">
+      <c r="E30" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
         <v>31</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="3">
         <v>43833</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="2">
+        <v>1694</v>
+      </c>
+      <c r="D31" s="2">
         <v>34</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="4">
+      <c r="E31" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
         <v>32</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="3">
         <v>43864</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="2">
+        <v>2036</v>
+      </c>
+      <c r="D32" s="2">
         <v>52</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="4">
+      <c r="E32" s="2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
         <v>33</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="3">
         <v>43893</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="2">
+        <v>2502</v>
+      </c>
+      <c r="D33" s="2">
         <v>79</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="4">
+      <c r="E33" s="2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
         <v>34</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="3">
         <v>43924</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="2">
+        <v>3089</v>
+      </c>
+      <c r="D34" s="2">
         <v>107</v>
+      </c>
+      <c r="E34" s="2">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <v>35</v>
+      </c>
+      <c r="B35" s="3">
+        <v>43954</v>
+      </c>
+      <c r="C35" s="2">
+        <v>3858</v>
+      </c>
+      <c r="D35" s="2">
+        <v>148</v>
+      </c>
+      <c r="E35" s="2">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>36</v>
+      </c>
+      <c r="B36" s="3">
+        <v>43985</v>
+      </c>
+      <c r="C36" s="2">
+        <v>4636</v>
+      </c>
+      <c r="D36" s="2">
+        <v>197</v>
+      </c>
+      <c r="E36" s="2">
+        <v>523</v>
       </c>
     </row>
   </sheetData>
